--- a/biology/Botanique/Mesophyllum/Mesophyllum.xlsx
+++ b/biology/Botanique/Mesophyllum/Mesophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mesophyllum est un genre d’algues rouges de la famille des Mesophyllaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (8 février 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (8 février 2019) :
 Mesophyllum aesitante (Conti) Me.Lemoine (Sans vérification)
 Mesophyllum aleuticum Lebednik
 Mesophyllum almarae (Me.Lemoine) Me.Lemoine (Sans vérification)
@@ -629,7 +643,7 @@
 Mesophyllum vignyense (Me.Lemoine) Me.Lemoine (Sans vérification)
 Mesophyllum yabei Ishijima (Sans vérification)
 Mesophyllum yuyashimaense Ishijima (Sans vérification)
-Selon BioLib                    (8 février 2019)[3] et ITIS      (8 février 2019)[4] :
+Selon BioLib                    (8 février 2019) et ITIS      (8 février 2019) :
 Mesophyllum conchatum
 Mesophyllum fecundus
 Mesophyllum floridanum
@@ -638,7 +652,7 @@
 Mesophyllum mangoensum
 Mesophyllum megacavum
 Mesophyllum prepulchrum
-Selon World Register of Marine Species                               (8 février 2019)[2] :
+Selon World Register of Marine Species                               (8 février 2019) :
 Mesophyllum aesitante (Conti) Me.Lemoine
 Mesophyllum aleuticum Lebednik, 2004
 Mesophyllum almarae (Me.Lemoine) Me.Lemoine, 1939 †
